--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori5/67/word_level_predictions_67.xlsx
@@ -3414,210 +3414,210 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>36</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>37</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>38</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>39</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5881,185 +5881,185 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>9</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>restricted</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>11</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>restricted</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G138" t="b">
@@ -7621,369 +7621,369 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
+      <c r="A139" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B139" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" s="2" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="D139" t="n">
+      <c r="D139" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D140" t="n">
+      <c r="D140" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
+      <c r="A141" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" s="2" t="inlineStr">
         <is>
           <t>propeller</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D141" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>on</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
+      <c r="A144" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" s="2" t="inlineStr">
         <is>
           <t>beeping</t>
         </is>
       </c>
-      <c r="D144" t="n">
+      <c r="D144" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
+      <c r="A145" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
         <is>
           <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" s="2" t="inlineStr">
         <is>
           <t>ESC</t>
         </is>
       </c>
-      <c r="D145" t="n">
+      <c r="D145" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F145" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori5/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_original/ori5/67/word_level_predictions_67.xlsx
@@ -3414,210 +3414,210 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5881,185 +5881,185 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>takeoff</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B108" s="2" t="inlineStr">
         <is>
           <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>9</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>restricted</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>3</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>takeoff</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>10</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>3</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>restricted</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>11</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7597,393 +7597,393 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>replace</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>16</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>17</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>propeller</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>18</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>19</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>beeping</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>21</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ESC</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>22</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>replace</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>propeller</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>beeping</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>ESC</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
